--- a/CT - ORANGEHRM.xlsx
+++ b/CT - ORANGEHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Said\Desktop\Caso de teste OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07607B6-17D5-450F-883B-2D7D8F475E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A6264-8FA1-4BDF-97F2-4E4695F74666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A5C27E-5F3C-49C8-9816-8B281B500666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A5C27E-5F3C-49C8-9816-8B281B500666}"/>
   </bookViews>
   <sheets>
     <sheet name="C.T - Válido" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Passo</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>https://github.com/thiagosaidm/CT-OrangeHRM/blob/main/Evid%C3%AAncias/Screenshot_5.png</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>APROVADO</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8EBEDD-7C34-48EC-8850-B0A06B448A37}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,14 +607,15 @@
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +631,11 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -641,8 +651,11 @@
       <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -656,8 +669,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -673,8 +689,11 @@
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -688,8 +707,11 @@
         <v>15</v>
       </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -704,6 +726,9 @@
       </c>
       <c r="E7" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA4313-6CA3-4194-B080-D3A3A7350375}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,14 +751,15 @@
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +775,11 @@
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -764,8 +793,11 @@
         <v>6</v>
       </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -779,8 +811,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -796,8 +831,11 @@
       <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -812,6 +850,9 @@
       </c>
       <c r="E6" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
